--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Osm-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Il6st</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H2">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I2">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J2">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N2">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O2">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P2">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q2">
-        <v>1145.733967481544</v>
+        <v>9.536260665041</v>
       </c>
       <c r="R2">
-        <v>10311.6057073339</v>
+        <v>85.826345985369</v>
       </c>
       <c r="S2">
-        <v>0.08577959249898429</v>
+        <v>0.0006432424009946155</v>
       </c>
       <c r="T2">
-        <v>0.08956252137057739</v>
+        <v>0.0006627816205670092</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H3">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I3">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J3">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P3">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q3">
-        <v>2667.113789111946</v>
+        <v>21.66112148985033</v>
       </c>
       <c r="R3">
-        <v>24004.02410200752</v>
+        <v>194.950093408653</v>
       </c>
       <c r="S3">
-        <v>0.1996832951381709</v>
+        <v>0.001461091751240158</v>
       </c>
       <c r="T3">
-        <v>0.2084894421522405</v>
+        <v>0.001505474075071348</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H4">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I4">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J4">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N4">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O4">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P4">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q4">
-        <v>368.174701584792</v>
+        <v>3.938283377581666</v>
       </c>
       <c r="R4">
-        <v>3313.572314263129</v>
+        <v>35.44455039823499</v>
       </c>
       <c r="S4">
-        <v>0.02756475479189923</v>
+        <v>0.0002656461420858113</v>
       </c>
       <c r="T4">
-        <v>0.02878037617342882</v>
+        <v>0.0002737154458051372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H5">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I5">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J5">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N5">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O5">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P5">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q5">
-        <v>651.3438630358891</v>
+        <v>3.184452149615</v>
       </c>
       <c r="R5">
-        <v>3908.063178215335</v>
+        <v>19.10671289769</v>
       </c>
       <c r="S5">
-        <v>0.04876525679931262</v>
+        <v>0.0002147985167897055</v>
       </c>
       <c r="T5">
-        <v>0.03394388826053896</v>
+        <v>0.0001475488440367523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>21.049038</v>
+        <v>0.170951</v>
       </c>
       <c r="H6">
-        <v>63.147114</v>
+        <v>0.512853</v>
       </c>
       <c r="I6">
-        <v>0.3848463719057281</v>
+        <v>0.002758076000346929</v>
       </c>
       <c r="J6">
-        <v>0.384846371905728</v>
+        <v>0.002768081273953094</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N6">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O6">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P6">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q6">
-        <v>307.918771182936</v>
+        <v>2.569182576466</v>
       </c>
       <c r="R6">
-        <v>2771.268940646424</v>
+        <v>23.122643188194</v>
       </c>
       <c r="S6">
-        <v>0.02305347267736103</v>
+        <v>0.0001732971892366385</v>
       </c>
       <c r="T6">
-        <v>0.02407014394894238</v>
+        <v>0.000178561288472848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H7">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I7">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J7">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N7">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O7">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P7">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q7">
-        <v>1831.386387864311</v>
+        <v>2020.176790100654</v>
       </c>
       <c r="R7">
-        <v>16482.47749077879</v>
+        <v>18181.59111090589</v>
       </c>
       <c r="S7">
-        <v>0.1371134857810855</v>
+        <v>0.136265504325154</v>
       </c>
       <c r="T7">
-        <v>0.1431602685756317</v>
+        <v>0.1404047240112866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H8">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I8">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J8">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P8">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q8">
-        <v>4263.219933159137</v>
+        <v>4588.726799568666</v>
       </c>
       <c r="R8">
-        <v>38368.97939843224</v>
+        <v>41298.541196118</v>
       </c>
       <c r="S8">
-        <v>0.3191816590755207</v>
+        <v>0.3095200254837199</v>
       </c>
       <c r="T8">
-        <v>0.3332577519808825</v>
+        <v>0.3189220483146589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H9">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I9">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J9">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N9">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O9">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P9">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q9">
-        <v>588.5049723370921</v>
+        <v>834.2922820257753</v>
       </c>
       <c r="R9">
-        <v>5296.544751033828</v>
+        <v>7508.630538231978</v>
       </c>
       <c r="S9">
-        <v>0.04406059185071247</v>
+        <v>0.05627490580126978</v>
       </c>
       <c r="T9">
-        <v>0.04600368903916686</v>
+        <v>0.05798432007366006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,14 +1021,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>33.645613</v>
+        <v>36.21453466666666</v>
       </c>
       <c r="H10">
-        <v>100.936839</v>
+        <v>108.643604</v>
       </c>
       <c r="I10">
-        <v>0.615153628094272</v>
+        <v>0.5842752538906774</v>
       </c>
       <c r="J10">
-        <v>0.6151536280942719</v>
+        <v>0.5863947871362269</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N10">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O10">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P10">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q10">
-        <v>1041.133734740301</v>
+        <v>674.5994628084865</v>
       </c>
       <c r="R10">
-        <v>6246.802408441809</v>
+        <v>4047.596776850919</v>
       </c>
       <c r="S10">
-        <v>0.07794831089740496</v>
+        <v>0.04550326311416353</v>
       </c>
       <c r="T10">
-        <v>0.05425725052752229</v>
+        <v>0.03125698432530701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>36.21453466666666</v>
+      </c>
+      <c r="H11">
+        <v>108.643604</v>
+      </c>
+      <c r="I11">
+        <v>0.5842752538906774</v>
+      </c>
+      <c r="J11">
+        <v>0.5863947871362269</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>15.028766</v>
+      </c>
+      <c r="N11">
+        <v>45.086298</v>
+      </c>
+      <c r="O11">
+        <v>0.06283263739463307</v>
+      </c>
+      <c r="P11">
+        <v>0.06450724194880479</v>
+      </c>
+      <c r="Q11">
+        <v>544.2597673042212</v>
+      </c>
+      <c r="R11">
+        <v>4898.337905737991</v>
+      </c>
+      <c r="S11">
+        <v>0.03671155516637011</v>
+      </c>
+      <c r="T11">
+        <v>0.03782671041131448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.6721045</v>
+      </c>
+      <c r="H12">
+        <v>1.344209</v>
+      </c>
+      <c r="I12">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J12">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>55.783591</v>
+      </c>
+      <c r="N12">
+        <v>167.350773</v>
+      </c>
+      <c r="O12">
+        <v>0.2332214199005771</v>
+      </c>
+      <c r="P12">
+        <v>0.2394371967339281</v>
+      </c>
+      <c r="Q12">
+        <v>37.4924025372595</v>
+      </c>
+      <c r="R12">
+        <v>224.954415223557</v>
+      </c>
+      <c r="S12">
+        <v>0.002528947548123646</v>
+      </c>
+      <c r="T12">
+        <v>0.001737178137596463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.6721045</v>
+      </c>
+      <c r="H13">
+        <v>1.344209</v>
+      </c>
+      <c r="I13">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J13">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N13">
+        <v>380.128601</v>
+      </c>
+      <c r="O13">
+        <v>0.5297503589663128</v>
+      </c>
+      <c r="P13">
+        <v>0.5438691736537713</v>
+      </c>
+      <c r="Q13">
+        <v>85.16204777026817</v>
+      </c>
+      <c r="R13">
+        <v>510.972286621609</v>
+      </c>
+      <c r="S13">
+        <v>0.005744373188348654</v>
+      </c>
+      <c r="T13">
+        <v>0.003945910038505344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.6721045</v>
+      </c>
+      <c r="H14">
+        <v>1.344209</v>
+      </c>
+      <c r="I14">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J14">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.03749833333333</v>
+      </c>
+      <c r="N14">
+        <v>69.112495</v>
+      </c>
+      <c r="O14">
+        <v>0.09631574403765399</v>
+      </c>
+      <c r="P14">
+        <v>0.09888273454277752</v>
+      </c>
+      <c r="Q14">
+        <v>15.48360629857583</v>
+      </c>
+      <c r="R14">
+        <v>92.90163779145499</v>
+      </c>
+      <c r="S14">
+        <v>0.001044404346880177</v>
+      </c>
+      <c r="T14">
+        <v>0.0007174195445678931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.6721045</v>
+      </c>
+      <c r="H15">
+        <v>1.344209</v>
+      </c>
+      <c r="I15">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J15">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>18.627865</v>
+      </c>
+      <c r="N15">
+        <v>37.25573</v>
+      </c>
+      <c r="O15">
+        <v>0.07787983970082285</v>
+      </c>
+      <c r="P15">
+        <v>0.05330365312071852</v>
+      </c>
+      <c r="Q15">
+        <v>12.5198718918925</v>
+      </c>
+      <c r="R15">
+        <v>50.07948756757</v>
+      </c>
+      <c r="S15">
+        <v>0.0008444937422283963</v>
+      </c>
+      <c r="T15">
+        <v>0.0003867316445332265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.6721045</v>
+      </c>
+      <c r="H16">
+        <v>1.344209</v>
+      </c>
+      <c r="I16">
+        <v>0.01084354751463971</v>
+      </c>
+      <c r="J16">
+        <v>0.007255255913837327</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>15.028766</v>
+      </c>
+      <c r="N16">
+        <v>45.086298</v>
+      </c>
+      <c r="O16">
+        <v>0.06283263739463307</v>
+      </c>
+      <c r="P16">
+        <v>0.06450724194880479</v>
+      </c>
+      <c r="Q16">
+        <v>10.100901258047</v>
+      </c>
+      <c r="R16">
+        <v>60.605407548282</v>
+      </c>
+      <c r="S16">
+        <v>0.0006813286890588313</v>
+      </c>
+      <c r="T16">
+        <v>0.0004680165486344012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H17">
+        <v>74.773157</v>
+      </c>
+      <c r="I17">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J17">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>55.783591</v>
+      </c>
+      <c r="N17">
+        <v>167.350773</v>
+      </c>
+      <c r="O17">
+        <v>0.2332214199005771</v>
+      </c>
+      <c r="P17">
+        <v>0.2394371967339281</v>
+      </c>
+      <c r="Q17">
+        <v>1390.371735955596</v>
+      </c>
+      <c r="R17">
+        <v>12513.34562360036</v>
+      </c>
+      <c r="S17">
+        <v>0.09378372562630487</v>
+      </c>
+      <c r="T17">
+        <v>0.09663251296447795</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H18">
+        <v>74.773157</v>
+      </c>
+      <c r="I18">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J18">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>126.7095336666667</v>
+      </c>
+      <c r="N18">
+        <v>380.128601</v>
+      </c>
+      <c r="O18">
+        <v>0.5297503589663128</v>
+      </c>
+      <c r="P18">
+        <v>0.5438691736537713</v>
+      </c>
+      <c r="Q18">
+        <v>3158.157284751484</v>
+      </c>
+      <c r="R18">
+        <v>28423.41556276336</v>
+      </c>
+      <c r="S18">
+        <v>0.2130248685430041</v>
+      </c>
+      <c r="T18">
+        <v>0.2194957412255357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>33.645613</v>
-      </c>
-      <c r="H11">
-        <v>100.936839</v>
-      </c>
-      <c r="I11">
-        <v>0.615153628094272</v>
-      </c>
-      <c r="J11">
-        <v>0.6151536280942719</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.62863866666667</v>
-      </c>
-      <c r="N11">
-        <v>43.88591599999999</v>
-      </c>
-      <c r="O11">
-        <v>0.05990305316690945</v>
-      </c>
-      <c r="P11">
-        <v>0.06254481192001105</v>
-      </c>
-      <c r="Q11">
-        <v>492.1895152955026</v>
-      </c>
-      <c r="R11">
-        <v>4429.705637659523</v>
-      </c>
-      <c r="S11">
-        <v>0.03684958048954842</v>
-      </c>
-      <c r="T11">
-        <v>0.03847466797106866</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H19">
+        <v>74.773157</v>
+      </c>
+      <c r="I19">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J19">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.03749833333333</v>
+      </c>
+      <c r="N19">
+        <v>69.112495</v>
+      </c>
+      <c r="O19">
+        <v>0.09631574403765399</v>
+      </c>
+      <c r="P19">
+        <v>0.09888273454277752</v>
+      </c>
+      <c r="Q19">
+        <v>574.1954932551905</v>
+      </c>
+      <c r="R19">
+        <v>5167.759439296715</v>
+      </c>
+      <c r="S19">
+        <v>0.03873078774741821</v>
+      </c>
+      <c r="T19">
+        <v>0.03990727947874442</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H20">
+        <v>74.773157</v>
+      </c>
+      <c r="I20">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J20">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>18.627865</v>
+      </c>
+      <c r="N20">
+        <v>37.25573</v>
+      </c>
+      <c r="O20">
+        <v>0.07787983970082285</v>
+      </c>
+      <c r="P20">
+        <v>0.05330365312071852</v>
+      </c>
+      <c r="Q20">
+        <v>464.2880914066017</v>
+      </c>
+      <c r="R20">
+        <v>2785.72854843961</v>
+      </c>
+      <c r="S20">
+        <v>0.03131728432764121</v>
+      </c>
+      <c r="T20">
+        <v>0.02151238830684152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>24.92438566666667</v>
+      </c>
+      <c r="H21">
+        <v>74.773157</v>
+      </c>
+      <c r="I21">
+        <v>0.4021231225943359</v>
+      </c>
+      <c r="J21">
+        <v>0.4035818756759826</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>15.028766</v>
+      </c>
+      <c r="N21">
+        <v>45.086298</v>
+      </c>
+      <c r="O21">
+        <v>0.06283263739463307</v>
+      </c>
+      <c r="P21">
+        <v>0.06450724194880479</v>
+      </c>
+      <c r="Q21">
+        <v>374.5827598780873</v>
+      </c>
+      <c r="R21">
+        <v>3371.244838902786</v>
+      </c>
+      <c r="S21">
+        <v>0.02526645634996749</v>
+      </c>
+      <c r="T21">
+        <v>0.02603395370038306</v>
       </c>
     </row>
   </sheetData>
